--- a/AUSENCIAS 1125.xlsx
+++ b/AUSENCIAS 1125.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\projeto_atendimento\PROGRAMA ASSIDUIDADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\ASSIDUIDADE-main\ASSIDUIDADE-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B08781E-0C7A-4930-BC0C-1F33678E9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290CD32D-F881-47DB-96BD-D68BD29943B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{1CBD4C84-1849-44F5-A4A9-3918F71D7241}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3694" uniqueCount="209">
   <si>
     <t>Nome</t>
   </si>
@@ -1098,11 +1098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87493D2-F48B-4067-9DC8-606204A692AD}">
-  <sheetPr codeName="Planilha1" filterMode="1"/>
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:I826"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G835" sqref="G835"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1114,7 +1114,7 @@
     <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.46484375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1686,8 +1686,11 @@
       <c r="G28" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -1706,8 +1709,11 @@
       <c r="G29" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1826,8 +1832,11 @@
       <c r="G35" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1855,11 @@
       <c r="G36" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1866,8 +1878,11 @@
       <c r="G37" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1886,8 +1901,11 @@
       <c r="G38" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1906,8 +1924,11 @@
       <c r="G39" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1926,8 +1947,11 @@
       <c r="G40" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1946,8 +1970,11 @@
       <c r="G41" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1966,8 +1993,11 @@
       <c r="G42" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2016,11 @@
       <c r="G43" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2006,8 +2039,11 @@
       <c r="G44" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2026,8 +2062,11 @@
       <c r="G45" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2046,8 +2085,11 @@
       <c r="G46" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2066,8 +2108,11 @@
       <c r="G47" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2086,8 +2131,11 @@
       <c r="G48" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2106,8 +2154,11 @@
       <c r="G49" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2177,11 @@
       <c r="G50" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -2146,8 +2200,11 @@
       <c r="G51" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2166,8 +2223,11 @@
       <c r="G52" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -2186,8 +2246,11 @@
       <c r="G53" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2206,8 +2269,11 @@
       <c r="G54" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2226,8 +2292,11 @@
       <c r="G55" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -2246,8 +2315,11 @@
       <c r="G56" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H56" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -2267,7 +2339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2287,7 +2359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2326,8 +2398,11 @@
       <c r="G60" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2346,8 +2421,11 @@
       <c r="G61" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2366,8 +2444,11 @@
       <c r="G62" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2386,8 +2467,11 @@
       <c r="G63" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2406,8 +2490,11 @@
       <c r="G64" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2426,8 +2513,11 @@
       <c r="G65" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2446,8 +2536,11 @@
       <c r="G66" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2466,8 +2559,11 @@
       <c r="G67" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2486,8 +2582,11 @@
       <c r="G68" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2506,8 +2605,11 @@
       <c r="G69" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H69" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2527,7 +2629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2547,7 +2649,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2567,7 +2669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +2729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2687,7 +2789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -2727,7 +2829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -2747,7 +2849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -2767,7 +2869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -2787,7 +2889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -2807,7 +2909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -2827,7 +2929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -2847,7 +2949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -2867,7 +2969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>161</v>
       </c>
@@ -2887,7 +2989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -2907,7 +3009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -2927,7 +3029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>161</v>
       </c>
@@ -2946,8 +3048,11 @@
       <c r="G91" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -2966,8 +3071,11 @@
       <c r="G92" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H92" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -2987,7 +3095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -3007,7 +3115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -3027,7 +3135,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -3067,7 +3175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3087,7 +3195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -3167,7 +3275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3187,7 +3295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -3207,7 +3315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -3227,7 +3335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -3247,7 +3355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -3267,7 +3375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -3287,7 +3395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -3307,7 +3415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -3327,7 +3435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -3347,7 +3455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -3367,7 +3475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -3407,7 +3515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3427,7 +3535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -3447,7 +3555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -3467,7 +3575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -3487,7 +3595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -3567,7 +3675,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -3587,7 +3695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -3607,7 +3715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -3627,7 +3735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -3647,7 +3755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +3795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -3707,7 +3815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -3727,7 +3835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>37</v>
       </c>
@@ -3747,7 +3855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -3767,7 +3875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>37</v>
       </c>
@@ -3787,7 +3895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -3807,7 +3915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -3827,7 +3935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -3867,7 +3975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -3907,7 +4015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -3927,7 +4035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -3947,7 +4055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>37</v>
       </c>
@@ -3967,7 +4075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>37</v>
       </c>
@@ -3987,7 +4095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>37</v>
       </c>
@@ -4007,7 +4115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -4027,7 +4135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>37</v>
       </c>
@@ -4047,7 +4155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>37</v>
       </c>
@@ -4067,7 +4175,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>37</v>
       </c>
@@ -4087,7 +4195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>37</v>
       </c>
@@ -4107,7 +4215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>37</v>
       </c>
@@ -4127,7 +4235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -4147,7 +4255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -4167,7 +4275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -4187,7 +4295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4207,7 +4315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4227,7 +4335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4247,7 +4355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4267,7 +4375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -4287,7 +4395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>68</v>
       </c>
@@ -4306,8 +4414,11 @@
       <c r="G159" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H159" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>68</v>
       </c>
@@ -4327,7 +4438,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>68</v>
       </c>
@@ -4347,7 +4458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>68</v>
       </c>
@@ -4367,7 +4478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>68</v>
       </c>
@@ -4387,7 +4498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +4518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -4427,7 +4538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>68</v>
       </c>
@@ -4447,7 +4558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>68</v>
       </c>
@@ -4467,7 +4578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>68</v>
       </c>
@@ -4487,7 +4598,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>68</v>
       </c>
@@ -4507,7 +4618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>68</v>
       </c>
@@ -4527,7 +4638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>68</v>
       </c>
@@ -4547,7 +4658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>68</v>
       </c>
@@ -4567,7 +4678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>68</v>
       </c>
@@ -4587,7 +4698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>68</v>
       </c>
@@ -4607,7 +4718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>68</v>
       </c>
@@ -4627,7 +4738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>68</v>
       </c>
@@ -4647,7 +4758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -4667,7 +4778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -4687,7 +4798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>68</v>
       </c>
@@ -4707,7 +4818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -4727,7 +4838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -4747,7 +4858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -4767,7 +4878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -4787,7 +4898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -4807,7 +4918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -4827,7 +4938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -4847,7 +4958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -4867,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>113</v>
       </c>
@@ -4887,7 +4998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>113</v>
       </c>
@@ -4907,7 +5018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -4926,8 +5037,11 @@
       <c r="G190" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -4946,8 +5060,11 @@
       <c r="G191" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H191" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -4967,7 +5084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -4987,7 +5104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>165</v>
       </c>
@@ -5007,7 +5124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>38</v>
       </c>
@@ -5027,7 +5144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>38</v>
       </c>
@@ -5047,7 +5164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>38</v>
       </c>
@@ -5067,7 +5184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>38</v>
       </c>
@@ -5087,7 +5204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>38</v>
       </c>
@@ -5107,7 +5224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -5127,7 +5244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>38</v>
       </c>
@@ -5147,7 +5264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>38</v>
       </c>
@@ -5167,7 +5284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>38</v>
       </c>
@@ -5187,7 +5304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>38</v>
       </c>
@@ -5207,7 +5324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>38</v>
       </c>
@@ -5227,7 +5344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>38</v>
       </c>
@@ -5247,7 +5364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>38</v>
       </c>
@@ -5267,7 +5384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -5287,7 +5404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>38</v>
       </c>
@@ -5307,7 +5424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -5327,7 +5444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>38</v>
       </c>
@@ -5347,7 +5464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>38</v>
       </c>
@@ -5367,7 +5484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>38</v>
       </c>
@@ -5387,7 +5504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>38</v>
       </c>
@@ -5407,7 +5524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -5427,7 +5544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -5447,7 +5564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -5467,7 +5584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>39</v>
       </c>
@@ -5487,7 +5604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>66</v>
       </c>
@@ -5507,7 +5624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>66</v>
       </c>
@@ -5527,7 +5644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>66</v>
       </c>
@@ -5547,7 +5664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>66</v>
       </c>
@@ -5567,7 +5684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>66</v>
       </c>
@@ -5587,7 +5704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>66</v>
       </c>
@@ -5607,7 +5724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>66</v>
       </c>
@@ -5627,7 +5744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -5647,7 +5764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -5667,7 +5784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -5687,7 +5804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -5707,7 +5824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -5727,7 +5844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -5747,7 +5864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -5767,7 +5884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -5787,7 +5904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -5807,7 +5924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>116</v>
       </c>
@@ -5827,7 +5944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>116</v>
       </c>
@@ -5847,7 +5964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -5867,7 +5984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>116</v>
       </c>
@@ -5887,7 +6004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>116</v>
       </c>
@@ -5907,7 +6024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>116</v>
       </c>
@@ -5927,7 +6044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>116</v>
       </c>
@@ -5947,7 +6064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -5967,7 +6084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -5987,7 +6104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>18</v>
       </c>
@@ -6006,8 +6123,11 @@
       <c r="G244" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H244" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -6026,8 +6146,11 @@
       <c r="G245" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H245" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -6046,8 +6169,11 @@
       <c r="G246" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H246" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -6066,8 +6192,11 @@
       <c r="G247" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H247" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -6086,8 +6215,11 @@
       <c r="G248" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H248" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -6106,8 +6238,11 @@
       <c r="G249" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H249" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -6126,8 +6261,11 @@
       <c r="G250" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H250" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -6146,8 +6284,11 @@
       <c r="G251" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H251" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>167</v>
       </c>
@@ -6167,7 +6308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>167</v>
       </c>
@@ -6187,7 +6328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>167</v>
       </c>
@@ -6207,7 +6348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>168</v>
       </c>
@@ -6226,8 +6367,11 @@
       <c r="G255" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H255" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>57</v>
       </c>
@@ -6247,7 +6391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>118</v>
       </c>
@@ -6267,7 +6411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>169</v>
       </c>
@@ -6287,7 +6431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>69</v>
       </c>
@@ -6307,7 +6451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +6471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -6346,8 +6490,11 @@
       <c r="G261" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H261" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -6366,8 +6513,11 @@
       <c r="G262" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H262" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>12</v>
       </c>
@@ -6386,8 +6536,11 @@
       <c r="G263" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H263" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6406,8 +6559,11 @@
       <c r="G264" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H264" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -6426,8 +6582,11 @@
       <c r="G265" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H265" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -6446,8 +6605,11 @@
       <c r="G266" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H266" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -6466,8 +6628,11 @@
       <c r="G267" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H267" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -6486,8 +6651,11 @@
       <c r="G268" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H268" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -6506,8 +6674,11 @@
       <c r="G269" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H269" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>12</v>
       </c>
@@ -6526,8 +6697,11 @@
       <c r="G270" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H270" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6546,8 +6720,11 @@
       <c r="G271" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H271" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -6566,8 +6743,11 @@
       <c r="G272" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H272" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -6586,8 +6766,11 @@
       <c r="G273" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H273" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -6606,8 +6789,11 @@
       <c r="G274" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H274" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -6626,8 +6812,11 @@
       <c r="G275" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H275" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -6646,8 +6835,11 @@
       <c r="G276" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H276" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -6666,8 +6858,11 @@
       <c r="G277" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H277" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -6686,8 +6881,11 @@
       <c r="G278" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H278" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -6706,8 +6904,11 @@
       <c r="G279" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H279" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -6726,8 +6927,11 @@
       <c r="G280" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H280" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>112</v>
       </c>
@@ -6747,7 +6951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>112</v>
       </c>
@@ -6767,7 +6971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>112</v>
       </c>
@@ -6787,7 +6991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>112</v>
       </c>
@@ -6806,8 +7010,11 @@
       <c r="G284" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H284" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>70</v>
       </c>
@@ -6827,7 +7034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>70</v>
       </c>
@@ -6847,7 +7054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>70</v>
       </c>
@@ -6867,7 +7074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>70</v>
       </c>
@@ -6887,7 +7094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>70</v>
       </c>
@@ -6907,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>70</v>
       </c>
@@ -6927,7 +7134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>70</v>
       </c>
@@ -6947,7 +7154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>70</v>
       </c>
@@ -6967,7 +7174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -6987,7 +7194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>70</v>
       </c>
@@ -7007,7 +7214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>70</v>
       </c>
@@ -7027,7 +7234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>70</v>
       </c>
@@ -7047,7 +7254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>70</v>
       </c>
@@ -7067,7 +7274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>70</v>
       </c>
@@ -7087,7 +7294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +7314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>70</v>
       </c>
@@ -7127,7 +7334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>70</v>
       </c>
@@ -7147,7 +7354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>71</v>
       </c>
@@ -7167,7 +7374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -7187,7 +7394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>40</v>
       </c>
@@ -7207,7 +7414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>40</v>
       </c>
@@ -7227,7 +7434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>40</v>
       </c>
@@ -7247,7 +7454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>40</v>
       </c>
@@ -7267,7 +7474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>40</v>
       </c>
@@ -7287,7 +7494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>40</v>
       </c>
@@ -7307,7 +7514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>40</v>
       </c>
@@ -7327,7 +7534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>40</v>
       </c>
@@ -7347,7 +7554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>40</v>
       </c>
@@ -7367,7 +7574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7387,7 +7594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>40</v>
       </c>
@@ -7407,7 +7614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>40</v>
       </c>
@@ -7427,7 +7634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>40</v>
       </c>
@@ -7447,7 +7654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>40</v>
       </c>
@@ -7467,7 +7674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>40</v>
       </c>
@@ -7487,7 +7694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>40</v>
       </c>
@@ -7507,7 +7714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>40</v>
       </c>
@@ -7527,7 +7734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>40</v>
       </c>
@@ -7547,7 +7754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>40</v>
       </c>
@@ -7567,7 +7774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>40</v>
       </c>
@@ -7587,7 +7794,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>40</v>
       </c>
@@ -7607,7 +7814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -7627,7 +7834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>41</v>
       </c>
@@ -7647,7 +7854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>42</v>
       </c>
@@ -7667,7 +7874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>42</v>
       </c>
@@ -7687,7 +7894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>42</v>
       </c>
@@ -7706,8 +7913,11 @@
       <c r="G329" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H329" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>42</v>
       </c>
@@ -7726,8 +7936,11 @@
       <c r="G330" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H330" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>42</v>
       </c>
@@ -7746,8 +7959,11 @@
       <c r="G331" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H331" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>42</v>
       </c>
@@ -7766,8 +7982,11 @@
       <c r="G332" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H332" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>42</v>
       </c>
@@ -7786,8 +8005,11 @@
       <c r="G333" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H333" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>42</v>
       </c>
@@ -7807,7 +8029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>42</v>
       </c>
@@ -7827,7 +8049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>170</v>
       </c>
@@ -7847,7 +8069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>171</v>
       </c>
@@ -7867,7 +8089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>171</v>
       </c>
@@ -7887,7 +8109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>172</v>
       </c>
@@ -7907,7 +8129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>172</v>
       </c>
@@ -7927,7 +8149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>72</v>
       </c>
@@ -7947,7 +8169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>72</v>
       </c>
@@ -7967,7 +8189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>72</v>
       </c>
@@ -7987,7 +8209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>72</v>
       </c>
@@ -8007,7 +8229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>72</v>
       </c>
@@ -8027,7 +8249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>72</v>
       </c>
@@ -8047,7 +8269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>73</v>
       </c>
@@ -8067,7 +8289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>73</v>
       </c>
@@ -8087,7 +8309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>73</v>
       </c>
@@ -8107,7 +8329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>73</v>
       </c>
@@ -8127,7 +8349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>73</v>
       </c>
@@ -8147,7 +8369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>73</v>
       </c>
@@ -8167,7 +8389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>73</v>
       </c>
@@ -8187,7 +8409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>73</v>
       </c>
@@ -8207,7 +8429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>73</v>
       </c>
@@ -8227,7 +8449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>73</v>
       </c>
@@ -8247,7 +8469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>73</v>
       </c>
@@ -8267,7 +8489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>73</v>
       </c>
@@ -8287,7 +8509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>73</v>
       </c>
@@ -8307,7 +8529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>73</v>
       </c>
@@ -8327,7 +8549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -8347,7 +8569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>73</v>
       </c>
@@ -8367,7 +8589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>73</v>
       </c>
@@ -8387,7 +8609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>73</v>
       </c>
@@ -8407,7 +8629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>73</v>
       </c>
@@ -8427,7 +8649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>73</v>
       </c>
@@ -8447,7 +8669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>73</v>
       </c>
@@ -8467,7 +8689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>73</v>
       </c>
@@ -8487,7 +8709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>73</v>
       </c>
@@ -8507,7 +8729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>43</v>
       </c>
@@ -8527,7 +8749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>43</v>
       </c>
@@ -8547,7 +8769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>43</v>
       </c>
@@ -8567,7 +8789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>43</v>
       </c>
@@ -8587,7 +8809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -8607,7 +8829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>43</v>
       </c>
@@ -8627,7 +8849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -8647,7 +8869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>43</v>
       </c>
@@ -8667,7 +8889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>43</v>
       </c>
@@ -8687,7 +8909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>43</v>
       </c>
@@ -8707,7 +8929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -8727,7 +8949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>43</v>
       </c>
@@ -8747,7 +8969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>43</v>
       </c>
@@ -8767,7 +8989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>43</v>
       </c>
@@ -8787,7 +9009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>43</v>
       </c>
@@ -8807,7 +9029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>43</v>
       </c>
@@ -8827,7 +9049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>43</v>
       </c>
@@ -8847,7 +9069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>43</v>
       </c>
@@ -8867,7 +9089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>43</v>
       </c>
@@ -8887,7 +9109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>43</v>
       </c>
@@ -8907,7 +9129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>43</v>
       </c>
@@ -8927,7 +9149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>64</v>
       </c>
@@ -8947,7 +9169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>64</v>
       </c>
@@ -8967,7 +9189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>64</v>
       </c>
@@ -8987,7 +9209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>64</v>
       </c>
@@ -9007,7 +9229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>64</v>
       </c>
@@ -9027,7 +9249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>64</v>
       </c>
@@ -9047,7 +9269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>64</v>
       </c>
@@ -9067,7 +9289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>64</v>
       </c>
@@ -9087,7 +9309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>64</v>
       </c>
@@ -9107,7 +9329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>64</v>
       </c>
@@ -9127,7 +9349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>64</v>
       </c>
@@ -9147,7 +9369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>44</v>
       </c>
@@ -9167,7 +9389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>44</v>
       </c>
@@ -9187,7 +9409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>44</v>
       </c>
@@ -9207,7 +9429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>44</v>
       </c>
@@ -9227,7 +9449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>44</v>
       </c>
@@ -9247,7 +9469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>44</v>
       </c>
@@ -9267,7 +9489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>44</v>
       </c>
@@ -9287,7 +9509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>44</v>
       </c>
@@ -9307,7 +9529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -9327,7 +9549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -9347,7 +9569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -9367,7 +9589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -9387,7 +9609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -9407,7 +9629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -9427,7 +9649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -9447,7 +9669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -9467,7 +9689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>119</v>
       </c>
@@ -9487,7 +9709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>119</v>
       </c>
@@ -9507,7 +9729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>45</v>
       </c>
@@ -9527,7 +9749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>45</v>
       </c>
@@ -9547,7 +9769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>45</v>
       </c>
@@ -9567,7 +9789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>45</v>
       </c>
@@ -9587,7 +9809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>45</v>
       </c>
@@ -9607,7 +9829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>45</v>
       </c>
@@ -9627,7 +9849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>45</v>
       </c>
@@ -9647,7 +9869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>45</v>
       </c>
@@ -9667,7 +9889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>45</v>
       </c>
@@ -9687,7 +9909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>45</v>
       </c>
@@ -9707,7 +9929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>45</v>
       </c>
@@ -9727,7 +9949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>45</v>
       </c>
@@ -9747,7 +9969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>45</v>
       </c>
@@ -9767,7 +9989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>45</v>
       </c>
@@ -9787,7 +10009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>45</v>
       </c>
@@ -9807,7 +10029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>45</v>
       </c>
@@ -9827,7 +10049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>45</v>
       </c>
@@ -9847,7 +10069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>45</v>
       </c>
@@ -9867,7 +10089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>45</v>
       </c>
@@ -9887,7 +10109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>45</v>
       </c>
@@ -9907,7 +10129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>45</v>
       </c>
@@ -9927,7 +10149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>45</v>
       </c>
@@ -9947,7 +10169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>45</v>
       </c>
@@ -9967,7 +10189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>45</v>
       </c>
@@ -9987,7 +10209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>45</v>
       </c>
@@ -10007,7 +10229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>28</v>
       </c>
@@ -10027,7 +10249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>28</v>
       </c>
@@ -10047,7 +10269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -10067,7 +10289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -10087,7 +10309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>11</v>
       </c>
@@ -10107,7 +10329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>11</v>
       </c>
@@ -10127,7 +10349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>11</v>
       </c>
@@ -10147,7 +10369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>11</v>
       </c>
@@ -10167,7 +10389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>11</v>
       </c>
@@ -10187,7 +10409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>11</v>
       </c>
@@ -10207,7 +10429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>11</v>
       </c>
@@ -10227,7 +10449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>11</v>
       </c>
@@ -10247,7 +10469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>11</v>
       </c>
@@ -10267,7 +10489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>11</v>
       </c>
@@ -10287,7 +10509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>11</v>
       </c>
@@ -10307,7 +10529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>11</v>
       </c>
@@ -10327,7 +10549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>11</v>
       </c>
@@ -10347,7 +10569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>11</v>
       </c>
@@ -10367,7 +10589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>11</v>
       </c>
@@ -10387,7 +10609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>11</v>
       </c>
@@ -10407,7 +10629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -10427,7 +10649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -10447,7 +10669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>46</v>
       </c>
@@ -10466,8 +10688,11 @@
       <c r="G467" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H467" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>46</v>
       </c>
@@ -10486,8 +10711,11 @@
       <c r="G468" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H468" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>46</v>
       </c>
@@ -10506,8 +10734,11 @@
       <c r="G469" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H469" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>46</v>
       </c>
@@ -10526,8 +10757,11 @@
       <c r="G470" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H470" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>46</v>
       </c>
@@ -10546,8 +10780,11 @@
       <c r="G471" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H471" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>46</v>
       </c>
@@ -10566,8 +10803,11 @@
       <c r="G472" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H472" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>48</v>
       </c>
@@ -10587,7 +10827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>48</v>
       </c>
@@ -10607,7 +10847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>48</v>
       </c>
@@ -10627,7 +10867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>48</v>
       </c>
@@ -10647,7 +10887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>74</v>
       </c>
@@ -10667,7 +10907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>74</v>
       </c>
@@ -10687,7 +10927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>117</v>
       </c>
@@ -10707,7 +10947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>117</v>
       </c>
@@ -10727,7 +10967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>117</v>
       </c>
@@ -10747,7 +10987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>117</v>
       </c>
@@ -10767,7 +11007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>117</v>
       </c>
@@ -10787,7 +11027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>117</v>
       </c>
@@ -10807,7 +11047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>117</v>
       </c>
@@ -10827,7 +11067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>117</v>
       </c>
@@ -10847,7 +11087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>88</v>
       </c>
@@ -10867,7 +11107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>88</v>
       </c>
@@ -10887,7 +11127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>88</v>
       </c>
@@ -10907,7 +11147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>88</v>
       </c>
@@ -10927,7 +11167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>120</v>
       </c>
@@ -10947,7 +11187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>120</v>
       </c>
@@ -10967,7 +11207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>120</v>
       </c>
@@ -10987,7 +11227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>120</v>
       </c>
@@ -11007,7 +11247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>120</v>
       </c>
@@ -11027,7 +11267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>120</v>
       </c>
@@ -11047,7 +11287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>120</v>
       </c>
@@ -11067,7 +11307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>120</v>
       </c>
@@ -11087,7 +11327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>120</v>
       </c>
@@ -11107,7 +11347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>120</v>
       </c>
@@ -11127,7 +11367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>120</v>
       </c>
@@ -11147,7 +11387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>120</v>
       </c>
@@ -11167,7 +11407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>120</v>
       </c>
@@ -11187,7 +11427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>120</v>
       </c>
@@ -11207,7 +11447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>120</v>
       </c>
@@ -11227,7 +11467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>120</v>
       </c>
@@ -11247,7 +11487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>120</v>
       </c>
@@ -11267,7 +11507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>120</v>
       </c>
@@ -11287,7 +11527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>89</v>
       </c>
@@ -11307,7 +11547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>89</v>
       </c>
@@ -11327,7 +11567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>89</v>
       </c>
@@ -11347,7 +11587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>89</v>
       </c>
@@ -11367,7 +11607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>89</v>
       </c>
@@ -11387,7 +11627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>89</v>
       </c>
@@ -11407,7 +11647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>89</v>
       </c>
@@ -11427,7 +11667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>89</v>
       </c>
@@ -11447,7 +11687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>89</v>
       </c>
@@ -11467,7 +11707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>89</v>
       </c>
@@ -11487,7 +11727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>89</v>
       </c>
@@ -11507,7 +11747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>89</v>
       </c>
@@ -11527,7 +11767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>89</v>
       </c>
@@ -11547,7 +11787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>89</v>
       </c>
@@ -11567,7 +11807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>89</v>
       </c>
@@ -11587,7 +11827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>89</v>
       </c>
@@ -11607,7 +11847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>89</v>
       </c>
@@ -11627,7 +11867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>89</v>
       </c>
@@ -11647,7 +11887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>89</v>
       </c>
@@ -11667,7 +11907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>89</v>
       </c>
@@ -11687,7 +11927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>89</v>
       </c>
@@ -11707,7 +11947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>89</v>
       </c>
@@ -11727,7 +11967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>89</v>
       </c>
@@ -11747,7 +11987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>89</v>
       </c>
@@ -11767,7 +12007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>49</v>
       </c>
@@ -11787,7 +12027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>49</v>
       </c>
@@ -11807,7 +12047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>49</v>
       </c>
@@ -11827,7 +12067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>49</v>
       </c>
@@ -11847,7 +12087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>49</v>
       </c>
@@ -11867,7 +12107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>49</v>
       </c>
@@ -11887,7 +12127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>30</v>
       </c>
@@ -11907,7 +12147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>30</v>
       </c>
@@ -11927,7 +12167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>75</v>
       </c>
@@ -11947,7 +12187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>75</v>
       </c>
@@ -11966,8 +12206,11 @@
       <c r="G542" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H542" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>75</v>
       </c>
@@ -11987,7 +12230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>75</v>
       </c>
@@ -12007,7 +12250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>50</v>
       </c>
@@ -12027,7 +12270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>173</v>
       </c>
@@ -12047,7 +12290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>93</v>
       </c>
@@ -12067,7 +12310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>93</v>
       </c>
@@ -12087,7 +12330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>93</v>
       </c>
@@ -12107,7 +12350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>93</v>
       </c>
@@ -12127,7 +12370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>93</v>
       </c>
@@ -12147,7 +12390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>93</v>
       </c>
@@ -12167,7 +12410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>93</v>
       </c>
@@ -12187,7 +12430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>51</v>
       </c>
@@ -12206,8 +12449,11 @@
       <c r="G554" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H554" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -12226,8 +12472,11 @@
       <c r="G555" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H555" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>174</v>
       </c>
@@ -12247,7 +12496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>174</v>
       </c>
@@ -12267,7 +12516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>174</v>
       </c>
@@ -12287,7 +12536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>174</v>
       </c>
@@ -12307,7 +12556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>174</v>
       </c>
@@ -12327,7 +12576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>174</v>
       </c>
@@ -12347,7 +12596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>174</v>
       </c>
@@ -12367,7 +12616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>174</v>
       </c>
@@ -12387,7 +12636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>174</v>
       </c>
@@ -12407,7 +12656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>174</v>
       </c>
@@ -12427,7 +12676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>174</v>
       </c>
@@ -12447,7 +12696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>90</v>
       </c>
@@ -12467,7 +12716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>90</v>
       </c>
@@ -12487,7 +12736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>90</v>
       </c>
@@ -12507,7 +12756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>90</v>
       </c>
@@ -12527,7 +12776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>90</v>
       </c>
@@ -12547,7 +12796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>90</v>
       </c>
@@ -12567,7 +12816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>90</v>
       </c>
@@ -12587,7 +12836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>90</v>
       </c>
@@ -12607,7 +12856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>52</v>
       </c>
@@ -12627,7 +12876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>52</v>
       </c>
@@ -12647,7 +12896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>52</v>
       </c>
@@ -12667,7 +12916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>52</v>
       </c>
@@ -12687,7 +12936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>52</v>
       </c>
@@ -12707,7 +12956,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>32</v>
       </c>
@@ -12727,7 +12976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>32</v>
       </c>
@@ -12747,7 +12996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>32</v>
       </c>
@@ -12767,7 +13016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>32</v>
       </c>
@@ -12787,7 +13036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>32</v>
       </c>
@@ -12807,7 +13056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>32</v>
       </c>
@@ -12827,7 +13076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>32</v>
       </c>
@@ -12847,7 +13096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>32</v>
       </c>
@@ -12867,7 +13116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>32</v>
       </c>
@@ -12887,7 +13136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>32</v>
       </c>
@@ -12907,7 +13156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>32</v>
       </c>
@@ -12927,7 +13176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>32</v>
       </c>
@@ -12947,7 +13196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>32</v>
       </c>
@@ -12967,7 +13216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>32</v>
       </c>
@@ -12987,7 +13236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>32</v>
       </c>
@@ -13007,7 +13256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>32</v>
       </c>
@@ -13027,7 +13276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>32</v>
       </c>
@@ -13047,7 +13296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>32</v>
       </c>
@@ -13067,7 +13316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>32</v>
       </c>
@@ -13087,7 +13336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>32</v>
       </c>
@@ -13107,7 +13356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>32</v>
       </c>
@@ -13127,7 +13376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>32</v>
       </c>
@@ -13147,7 +13396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>32</v>
       </c>
@@ -13167,7 +13416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>32</v>
       </c>
@@ -13187,7 +13436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>32</v>
       </c>
@@ -13207,7 +13456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>32</v>
       </c>
@@ -13227,7 +13476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>92</v>
       </c>
@@ -13247,7 +13496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>92</v>
       </c>
@@ -13267,7 +13516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>92</v>
       </c>
@@ -13287,7 +13536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>92</v>
       </c>
@@ -13307,7 +13556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>92</v>
       </c>
@@ -13327,7 +13576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>92</v>
       </c>
@@ -13347,7 +13596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>92</v>
       </c>
@@ -13367,7 +13616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>92</v>
       </c>
@@ -13387,7 +13636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>92</v>
       </c>
@@ -13407,7 +13656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>92</v>
       </c>
@@ -13427,7 +13676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>91</v>
       </c>
@@ -13447,7 +13696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>91</v>
       </c>
@@ -13467,7 +13716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>91</v>
       </c>
@@ -13487,7 +13736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>91</v>
       </c>
@@ -13507,7 +13756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>91</v>
       </c>
@@ -13527,7 +13776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>91</v>
       </c>
@@ -13547,7 +13796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>91</v>
       </c>
@@ -13567,7 +13816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>31</v>
       </c>
@@ -13586,8 +13835,11 @@
       <c r="G623" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H623" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>76</v>
       </c>
@@ -13607,7 +13859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>76</v>
       </c>
@@ -13627,7 +13879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>76</v>
       </c>
@@ -13647,7 +13899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>76</v>
       </c>
@@ -13667,7 +13919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>76</v>
       </c>
@@ -13687,7 +13939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>76</v>
       </c>
@@ -13707,7 +13959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>76</v>
       </c>
@@ -13727,7 +13979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>76</v>
       </c>
@@ -13746,8 +13998,11 @@
       <c r="G631" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H631" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>76</v>
       </c>
@@ -13766,8 +14021,11 @@
       <c r="G632" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H632" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>76</v>
       </c>
@@ -13786,8 +14044,11 @@
       <c r="G633" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H633" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>76</v>
       </c>
@@ -13806,8 +14067,11 @@
       <c r="G634" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H634" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>76</v>
       </c>
@@ -13826,8 +14090,11 @@
       <c r="G635" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H635" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>76</v>
       </c>
@@ -13847,7 +14114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>76</v>
       </c>
@@ -13867,7 +14134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>76</v>
       </c>
@@ -13887,7 +14154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>76</v>
       </c>
@@ -13907,7 +14174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>76</v>
       </c>
@@ -13927,7 +14194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>76</v>
       </c>
@@ -13947,7 +14214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>53</v>
       </c>
@@ -13967,7 +14234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>115</v>
       </c>
@@ -13987,7 +14254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>115</v>
       </c>
@@ -14007,7 +14274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>10</v>
       </c>
@@ -14027,7 +14294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>10</v>
       </c>
@@ -14047,7 +14314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>10</v>
       </c>
@@ -14067,7 +14334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>10</v>
       </c>
@@ -14087,7 +14354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>10</v>
       </c>
@@ -14107,7 +14374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -14127,7 +14394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>10</v>
       </c>
@@ -14147,7 +14414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>10</v>
       </c>
@@ -14167,7 +14434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>10</v>
       </c>
@@ -14187,7 +14454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>10</v>
       </c>
@@ -14207,7 +14474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>10</v>
       </c>
@@ -14227,7 +14494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>10</v>
       </c>
@@ -14247,7 +14514,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -14267,7 +14534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>10</v>
       </c>
@@ -14287,7 +14554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>10</v>
       </c>
@@ -14307,7 +14574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="660" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>10</v>
       </c>
@@ -14327,7 +14594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>10</v>
       </c>
@@ -14347,7 +14614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>175</v>
       </c>
@@ -14367,7 +14634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>175</v>
       </c>
@@ -14387,7 +14654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>175</v>
       </c>
@@ -14407,7 +14674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>175</v>
       </c>
@@ -14427,7 +14694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>175</v>
       </c>
@@ -14447,7 +14714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>175</v>
       </c>
@@ -14467,7 +14734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>175</v>
       </c>
@@ -14487,7 +14754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>175</v>
       </c>
@@ -14507,7 +14774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>111</v>
       </c>
@@ -14526,8 +14793,11 @@
       <c r="G670" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H670" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>111</v>
       </c>
@@ -14546,8 +14816,11 @@
       <c r="G671" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="H671" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>111</v>
       </c>
@@ -14567,7 +14840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>176</v>
       </c>
@@ -14587,7 +14860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>176</v>
       </c>
@@ -14607,7 +14880,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>176</v>
       </c>
@@ -14627,7 +14900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>176</v>
       </c>
@@ -14647,7 +14920,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>176</v>
       </c>
@@ -14667,7 +14940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>176</v>
       </c>
@@ -14687,7 +14960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>65</v>
       </c>
@@ -14707,7 +14980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -14733,7 +15006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -14759,7 +15032,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>161</v>
       </c>
@@ -14785,7 +15058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>9</v>
       </c>
@@ -14811,7 +15084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -14837,7 +15110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>9</v>
       </c>
@@ -14863,7 +15136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -14889,7 +15162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>9</v>
       </c>
@@ -14915,7 +15188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -14941,7 +15214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>9</v>
       </c>
@@ -14967,7 +15240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -14993,7 +15266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>9</v>
       </c>
@@ -15019,7 +15292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -15045,7 +15318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>9</v>
       </c>
@@ -15071,7 +15344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>9</v>
       </c>
@@ -15097,7 +15370,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>9</v>
       </c>
@@ -15123,7 +15396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -15149,7 +15422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>9</v>
       </c>
@@ -15175,7 +15448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -15201,7 +15474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>9</v>
       </c>
@@ -15227,7 +15500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -15253,7 +15526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>9</v>
       </c>
@@ -15279,7 +15552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>9</v>
       </c>
@@ -15305,7 +15578,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -15331,7 +15604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -15357,7 +15630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -15383,7 +15656,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>9</v>
       </c>
@@ -15409,7 +15682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -15435,7 +15708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>9</v>
       </c>
@@ -15461,7 +15734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>81</v>
       </c>
@@ -15487,7 +15760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>14</v>
       </c>
@@ -15513,7 +15786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>68</v>
       </c>
@@ -15539,7 +15812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>27</v>
       </c>
@@ -15565,7 +15838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>184</v>
       </c>
@@ -15591,7 +15864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>184</v>
       </c>
@@ -15617,7 +15890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>184</v>
       </c>
@@ -15643,7 +15916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>184</v>
       </c>
@@ -15669,7 +15942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>184</v>
       </c>
@@ -15695,7 +15968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>184</v>
       </c>
@@ -15721,7 +15994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>184</v>
       </c>
@@ -15747,7 +16020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>165</v>
       </c>
@@ -15773,7 +16046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>165</v>
       </c>
@@ -15799,7 +16072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>39</v>
       </c>
@@ -15825,7 +16098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>83</v>
       </c>
@@ -15851,7 +16124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>83</v>
       </c>
@@ -15877,7 +16150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>57</v>
       </c>
@@ -15903,7 +16176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>57</v>
       </c>
@@ -15929,7 +16202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>58</v>
       </c>
@@ -15955,7 +16228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>58</v>
       </c>
@@ -15981,7 +16254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>63</v>
       </c>
@@ -16007,7 +16280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>63</v>
       </c>
@@ -16033,7 +16306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>63</v>
       </c>
@@ -16059,7 +16332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>63</v>
       </c>
@@ -16085,7 +16358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>63</v>
       </c>
@@ -16111,7 +16384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>63</v>
       </c>
@@ -16137,7 +16410,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>63</v>
       </c>
@@ -16163,7 +16436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>63</v>
       </c>
@@ -16189,7 +16462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>63</v>
       </c>
@@ -16215,7 +16488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>63</v>
       </c>
@@ -16241,7 +16514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>63</v>
       </c>
@@ -16267,7 +16540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>63</v>
       </c>
@@ -16293,7 +16566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>63</v>
       </c>
@@ -16319,7 +16592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>63</v>
       </c>
@@ -16345,7 +16618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>63</v>
       </c>
@@ -16371,7 +16644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>63</v>
       </c>
@@ -16397,7 +16670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>63</v>
       </c>
@@ -16423,7 +16696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>63</v>
       </c>
@@ -16449,7 +16722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>63</v>
       </c>
@@ -16475,7 +16748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>63</v>
       </c>
@@ -16501,7 +16774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>63</v>
       </c>
@@ -16527,7 +16800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>63</v>
       </c>
@@ -16553,7 +16826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>63</v>
       </c>
@@ -16579,7 +16852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>63</v>
       </c>
@@ -16605,7 +16878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>63</v>
       </c>
@@ -16631,7 +16904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>63</v>
       </c>
@@ -16657,7 +16930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>70</v>
       </c>
@@ -16683,7 +16956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>72</v>
       </c>
@@ -16709,7 +16982,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>72</v>
       </c>
@@ -16735,7 +17008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>72</v>
       </c>
@@ -16761,7 +17034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>8</v>
       </c>
@@ -16787,7 +17060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>8</v>
       </c>
@@ -16813,7 +17086,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>8</v>
       </c>
@@ -16839,7 +17112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>8</v>
       </c>
@@ -16865,7 +17138,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>8</v>
       </c>
@@ -16891,7 +17164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>8</v>
       </c>
@@ -16917,7 +17190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>8</v>
       </c>
@@ -16943,7 +17216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>8</v>
       </c>
@@ -16969,7 +17242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>8</v>
       </c>
@@ -16995,7 +17268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>8</v>
       </c>
@@ -17021,7 +17294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>8</v>
       </c>
@@ -17047,7 +17320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>8</v>
       </c>
@@ -17073,7 +17346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>28</v>
       </c>
@@ -17099,7 +17372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>28</v>
       </c>
@@ -17125,7 +17398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>28</v>
       </c>
@@ -17151,7 +17424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>28</v>
       </c>
@@ -17177,7 +17450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>28</v>
       </c>
@@ -17203,7 +17476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>28</v>
       </c>
@@ -17229,7 +17502,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>28</v>
       </c>
@@ -17255,7 +17528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>28</v>
       </c>
@@ -17281,7 +17554,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>28</v>
       </c>
@@ -17307,7 +17580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>28</v>
       </c>
@@ -17333,7 +17606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>28</v>
       </c>
@@ -17359,7 +17632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>29</v>
       </c>
@@ -17385,7 +17658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>29</v>
       </c>
@@ -17411,7 +17684,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>29</v>
       </c>
@@ -17437,7 +17710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>29</v>
       </c>
@@ -17463,7 +17736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>29</v>
       </c>
@@ -17489,7 +17762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>29</v>
       </c>
@@ -17515,7 +17788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>29</v>
       </c>
@@ -17541,7 +17814,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>29</v>
       </c>
@@ -17567,7 +17840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>29</v>
       </c>
@@ -17593,7 +17866,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>29</v>
       </c>
@@ -17619,7 +17892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>29</v>
       </c>
@@ -17645,7 +17918,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>47</v>
       </c>
@@ -17671,7 +17944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>47</v>
       </c>
@@ -17697,7 +17970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>15</v>
       </c>
@@ -17723,7 +17996,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>94</v>
       </c>
@@ -17749,7 +18022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>94</v>
       </c>
@@ -17775,7 +18048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>94</v>
       </c>
@@ -17801,7 +18074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>94</v>
       </c>
@@ -17827,7 +18100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>94</v>
       </c>
@@ -17853,7 +18126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>94</v>
       </c>
@@ -17879,7 +18152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>94</v>
       </c>
@@ -17905,7 +18178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>94</v>
       </c>
@@ -17931,7 +18204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>94</v>
       </c>
@@ -17957,7 +18230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>94</v>
       </c>
@@ -17983,7 +18256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>94</v>
       </c>
@@ -18009,7 +18282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>94</v>
       </c>
@@ -18035,7 +18308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>94</v>
       </c>
@@ -18061,7 +18334,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>94</v>
       </c>
@@ -18087,7 +18360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>94</v>
       </c>
@@ -18113,7 +18386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>94</v>
       </c>
@@ -18139,7 +18412,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>94</v>
       </c>
@@ -18165,7 +18438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>208</v>
       </c>
@@ -18191,7 +18464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>208</v>
       </c>
@@ -18217,7 +18490,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>208</v>
       </c>
@@ -18243,7 +18516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>208</v>
       </c>
@@ -18269,7 +18542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>208</v>
       </c>
@@ -18295,7 +18568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>208</v>
       </c>
@@ -18321,7 +18594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>208</v>
       </c>
@@ -18347,7 +18620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>208</v>
       </c>
@@ -18373,7 +18646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>208</v>
       </c>
@@ -18399,7 +18672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>208</v>
       </c>
@@ -18425,7 +18698,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>208</v>
       </c>
@@ -18451,7 +18724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>208</v>
       </c>
@@ -18477,7 +18750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>208</v>
       </c>
@@ -18503,7 +18776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>92</v>
       </c>
@@ -18530,13 +18803,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I826" xr:uid="{A87493D2-F48B-4067-9DC8-606204A692AD}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Atestado Médico"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I826" xr:uid="{A87493D2-F48B-4067-9DC8-606204A692AD}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
